--- a/QALD9-Plus-testing/zero-shot-entity-aligned/zero-shot-entity-aligned-wikidata-dbpedia/zero_shot_entity_aligned_llama_wikidata_dbpedia_results_comparison.xlsx
+++ b/QALD9-Plus-testing/zero-shot-entity-aligned/zero-shot-entity-aligned-wikidata-dbpedia/zero_shot_entity_aligned_llama_wikidata_dbpedia_results_comparison.xlsx
@@ -498,17 +498,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Give me all actors starring in movies directed by William Shatner.</t>
+          <t>When was Olof Palme shot?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/DeForest_Kelley', 'http://dbpedia.org/resource/George_Takei', 'http://dbpedia.org/resource/James_Doohan', 'http://dbpedia.org/resource/Leonard_Nimoy', 'http://dbpedia.org/resource/Nichelle_Nichols', 'http://dbpedia.org/resource/Walter_Koenig', 'http://dbpedia.org/resource/William_Shatner']</t>
+          <t>['1986-02-28']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/DeForest_Kelley', 'http://dbpedia.org/resource/George_Takei', 'http://dbpedia.org/resource/James_Doohan', 'http://dbpedia.org/resource/Leonard_Nimoy', 'http://dbpedia.org/resource/Nichelle_Nichols', 'http://dbpedia.org/resource/Walter_Koenig', 'http://dbpedia.org/resource/William_Shatner']</t>
+          <t>['1986-02-28']</t>
         </is>
       </c>
       <c r="D4" t="b">
@@ -518,17 +518,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>When was Olof Palme shot?</t>
+          <t>Which movies star both Liz Taylor and Richard Burton?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['1986-02-28']</t>
+          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['1986-02-28']</t>
+          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
         </is>
       </c>
       <c r="D5" t="b">
@@ -538,17 +538,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Which movies star both Liz Taylor and Richard Burton?</t>
+          <t>How much did the Lego Movie cost?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
+          <t>['60.0']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
+          <t>['60.0']</t>
         </is>
       </c>
       <c r="D6" t="b">
@@ -558,17 +558,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Who developed Minecraft?</t>
+          <t>In which year was Rachel Stevens born?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Mojang_Studios']</t>
+          <t>['1978']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Mojang_Studios']</t>
+          <t>['1978']</t>
         </is>
       </c>
       <c r="D7" t="b">
@@ -578,37 +578,37 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>How much did the Lego Movie cost?</t>
+          <t>What is the most frequent cause of death?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['60.0']</t>
+          <t>['http://dbpedia.org/resource/Assassination_of_Wissam_al-Hassan']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['60.0']</t>
+          <t>['http://dbpedia.org/resource/Execution_by_hanging']</t>
         </is>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Give me the runtime of Toy Story.</t>
+          <t>How high is the Yokohama Marine Tower?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['4860']</t>
+          <t>['106.07']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['4860']</t>
+          <t>['106.07']</t>
         </is>
       </c>
       <c r="D9" t="b">
@@ -618,17 +618,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Give me a list of all trumpet players that were bandleaders.</t>
+          <t>What is the highest mountain in Italy?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
+          <t>['http://dbpedia.org/resource/Mont_Blanc']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
+          <t>['http://dbpedia.org/resource/Mont_Blanc']</t>
         </is>
       </c>
       <c r="D10" t="b">
@@ -638,17 +638,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>In which year was Rachel Stevens born?</t>
+          <t>Who was the doctoral supervisor of Albert Einstein?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['1978']</t>
+          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['1978']</t>
+          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
         </is>
       </c>
       <c r="D11" t="b">
@@ -658,17 +658,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>What is the most frequent cause of death?</t>
+          <t>What is Donald Trump's main business?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Assassination_of_Wissam_al-Hassan']</t>
+          <t>['http://dbpedia.org/resource/GoTrump.com', 'http://dbpedia.org/resource/The_Trump_Organization', 'http://dbpedia.org/resource/Trump_Model_Management']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Execution_by_hanging', '223']</t>
+          <t>['http://dbpedia.org/resource/The_Trump_Organization', 'http://dbpedia.org/resource/Trump_Model_Management']</t>
         </is>
       </c>
       <c r="D12" t="b">
@@ -678,17 +678,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>How high is the Yokohama Marine Tower?</t>
+          <t>Who is the author of the interpretation of dreams?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['106.07']</t>
+          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['106.07']</t>
+          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
         </is>
       </c>
       <c r="D13" t="b">
@@ -698,17 +698,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Who was the doctoral supervisor of Albert Einstein?</t>
+          <t>Give me the currency of China.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
+          <t>['http://dbpedia.org/resource/Renminbi']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
+          <t>['http://dbpedia.org/resource/Renminbi']</t>
         </is>
       </c>
       <c r="D14" t="b">
@@ -718,17 +718,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Who is the author of the interpretation of dreams?</t>
+          <t>Who developed the video game World of Warcraft?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
+          <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
+          <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
         </is>
       </c>
       <c r="D15" t="b">
@@ -738,17 +738,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>When was John Adams born?</t>
+          <t>Which university did Angela Merkel attend?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['1735-10-30']</t>
+          <t>['http://dbpedia.org/resource/German_Academy_of_Sciences_at_Berlin', 'http://dbpedia.org/resource/Leipzig_University']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['1735-10-30']</t>
+          <t>['http://dbpedia.org/resource/German_Academy_of_Sciences_at_Berlin', 'http://dbpedia.org/resource/Leipzig_University']</t>
         </is>
       </c>
       <c r="D16" t="b">
@@ -758,17 +758,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Give me the currency of China.</t>
+          <t>Where was JFK assassinated?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Renminbi']</t>
+          <t>['http://dbpedia.org/resource/Dallas']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Renminbi']</t>
+          <t>['http://dbpedia.org/resource/Dallas']</t>
         </is>
       </c>
       <c r="D17" t="b">
@@ -778,17 +778,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>When was the death of Shakespeare?</t>
+          <t>Which river does the Brooklyn Bridge cross?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['1616-04-23']</t>
+          <t>['http://dbpedia.org/resource/East_River']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['1616-04-23']</t>
+          <t>['http://dbpedia.org/resource/East_River']</t>
         </is>
       </c>
       <c r="D18" t="b">
@@ -798,17 +798,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Give me all movies with Tom Cruise.</t>
+          <t>Which people were born in Heraklion?</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Few_Good_Men', 'http://dbpedia.org/resource/All_the_Right_Moves_(film)', 'http://dbpedia.org/resource/American_Made_(film)', 'http://dbpedia.org/resource/Born_on_the_Fourth_of_July_(film)', 'http://dbpedia.org/resource/Cocktail_(1988_film)', 'http://dbpedia.org/resource/Collateral_(film)', 'http://dbpedia.org/resource/Days_of_Thunder', 'http://dbpedia.org/resource/Edge_of_Tomorrow', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Far_and_Away__Far_and_Away__1', 'http://dbpedia.org/resource/Interview_with_the_Vampire_(film)', 'http://dbpedia.org/resource/Jack_Reacher_(film)', 'http://dbpedia.org/resource/Jack_Reacher:_Never_Go_Back', 'http://dbpedia.org/resource/Jerry_Maguire__Jerry_Maguire__1', 'http://dbpedia.org/resource/Knight_and_Day__Knight_and_Day__1', 'http://dbpedia.org/resource/Legend_(1985_film)', 'http://dbpedia.org/resource/Lions_for_Lambs', "http://dbpedia.org/resource/Losin'_It", 'http://dbpedia.org/resource/Magnolia_(film)__Magnolia__1', 'http://dbpedia.org/resource/Minority_Report_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_One', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_Two', 'http://dbpedia.org/resource/Mission:_Impossible_–_Fallout', 'http://dbpedia.org/resource/Mission:_Impossible_–_Ghost_Protocol', 'http://dbpedia.org/resource/Mission:_Impossible_–_Rogue_Nation', 'http://dbpedia.org/resource/Mission:_Impossible_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_2', 'http://dbpedia.org/resource/Mission:_Impossible_III', 'http://dbpedia.org/resource/Oblivion_(2013_film)', 'http://dbpedia.org/resource/Rain_Man', 'http://dbpedia.org/resource/Risky_Business', 'http://dbpedia.org/resource/Rock_of_Ages_(2012_film)', 'http://dbpedia.org/resource/Taps_(film)', 'http://dbpedia.org/resource/The_Color_of_Money', 'http://dbpedia.org/resource/The_Firm_(1993_film)', 'http://dbpedia.org/resource/The_Last_Samurai', 'http://dbpedia.org/resource/The_Mummy_(2017_film)', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/Top_Gun:_Maverick', 'http://dbpedia.org/resource/Top_Gun', 'http://dbpedia.org/resource/Valkyrie_(film)', 'http://dbpedia.org/resource/Vanilla_Sky', 'http://dbpedia.org/resource/War_of_the_Worlds_(2005_film)']</t>
+          <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Few_Good_Men', 'http://dbpedia.org/resource/All_the_Right_Moves_(film)', 'http://dbpedia.org/resource/American_Made_(film)', 'http://dbpedia.org/resource/Born_on_the_Fourth_of_July_(film)', 'http://dbpedia.org/resource/Cocktail_(1988_film)', 'http://dbpedia.org/resource/Collateral_(film)', 'http://dbpedia.org/resource/Days_of_Thunder', 'http://dbpedia.org/resource/Edge_of_Tomorrow', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Far_and_Away__Far_and_Away__1', 'http://dbpedia.org/resource/Interview_with_the_Vampire_(film)', 'http://dbpedia.org/resource/Jack_Reacher_(film)', 'http://dbpedia.org/resource/Jack_Reacher:_Never_Go_Back', 'http://dbpedia.org/resource/Jerry_Maguire__Jerry_Maguire__1', 'http://dbpedia.org/resource/Knight_and_Day__Knight_and_Day__1', 'http://dbpedia.org/resource/Legend_(1985_film)', 'http://dbpedia.org/resource/Lions_for_Lambs', "http://dbpedia.org/resource/Losin'_It", 'http://dbpedia.org/resource/Magnolia_(film)__Magnolia__1', 'http://dbpedia.org/resource/Minority_Report_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_One', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_Two', 'http://dbpedia.org/resource/Mission:_Impossible_–_Fallout', 'http://dbpedia.org/resource/Mission:_Impossible_–_Ghost_Protocol', 'http://dbpedia.org/resource/Mission:_Impossible_–_Rogue_Nation', 'http://dbpedia.org/resource/Mission:_Impossible_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_2', 'http://dbpedia.org/resource/Mission:_Impossible_III', 'http://dbpedia.org/resource/Oblivion_(2013_film)', 'http://dbpedia.org/resource/Rain_Man', 'http://dbpedia.org/resource/Risky_Business', 'http://dbpedia.org/resource/Rock_of_Ages_(2012_film)', 'http://dbpedia.org/resource/Taps_(film)', 'http://dbpedia.org/resource/The_Color_of_Money', 'http://dbpedia.org/resource/The_Firm_(1993_film)', 'http://dbpedia.org/resource/The_Last_Samurai', 'http://dbpedia.org/resource/The_Mummy_(2017_film)', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/Top_Gun:_Maverick', 'http://dbpedia.org/resource/Top_Gun', 'http://dbpedia.org/resource/Valkyrie_(film)', 'http://dbpedia.org/resource/Vanilla_Sky', 'http://dbpedia.org/resource/War_of_the_Worlds_(2005_film)']</t>
+          <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
         </is>
       </c>
       <c r="D19" t="b">
@@ -818,37 +818,37 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>What country is Mount Everest in?</t>
+          <t>How many children did Benjamin Franklin have?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal', 'http://dbpedia.org/resource/Province_No._1', 'http://dbpedia.org/resource/Solukhumbu_District', 'http://dbpedia.org/resource/Tibet_Autonomous_Region', 'http://dbpedia.org/resource/Tingri_County', 'http://dbpedia.org/resource/Xigazê']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Which river does the Brooklyn Bridge cross?</t>
+          <t>Who wrote the book The Pillars of the Earth?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/East_River']</t>
+          <t>['http://dbpedia.org/resource/Ken_Follett']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/East_River']</t>
+          <t>['http://dbpedia.org/resource/Ken_Follett']</t>
         </is>
       </c>
       <c r="D21" t="b">
@@ -858,17 +858,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>What is the population of Cairo?</t>
+          <t>What kind of music did Lou Reed play?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['10100166']</t>
+          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['10100166']</t>
+          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
         </is>
       </c>
       <c r="D22" t="b">
@@ -878,37 +878,37 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>how much is the elevation of Düsseldorf Airport ?</t>
+          <t>Which television shows were created by Walt Disney?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['44.8']</t>
+          <t>['http://dbpedia.org/resource/Disney_anthology_television_series', 'http://dbpedia.org/resource/Donald_Duck', 'http://dbpedia.org/resource/Oswald_the_Lucky_Rabbit']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['44.8', '44.8056']</t>
+          <t>['http://dbpedia.org/resource/Disney_anthology_television_series', 'http://dbpedia.org/resource/Donald_Duck', 'http://dbpedia.org/resource/Oswald_the_Lucky_Rabbit']</t>
         </is>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>What kind of music did Lou Reed play?</t>
+          <t>In which country is the Limerick Lake?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
+          <t>['http://dbpedia.org/resource/Canada']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
+          <t>['http://dbpedia.org/resource/Canada']</t>
         </is>
       </c>
       <c r="D24" t="b">
@@ -918,17 +918,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Give me the birth place of Frank Sinatra.</t>
+          <t>How tall is Michael Jordan?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
+          <t>['1.9812']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
+          <t>['1.9812']</t>
         </is>
       </c>
       <c r="D25" t="b">
@@ -938,57 +938,57 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Which city has the least inhabitants?</t>
+          <t>how much is the population Iraq?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
+          <t>['40462701']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Rotbusch']</t>
+          <t>['40462701']</t>
         </is>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Where did Abraham Lincoln die?</t>
+          <t>Give me the birthdays of all actors of the television show Charmed.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
+          <t>['1965-10-01', '1968-07-27', '1969-02-01', '1971-01-26', '1971-04-12', '1972-12-19', '1973-06-15', '1973-09-05', '1973-12-03', '1980-05-19', '1985-11-30']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
+          <t>['http://dbpedia.org/resource/Alyssa_Milano', '1972-12-19', 'http://dbpedia.org/resource/Brian_Krause', '1969-02-01', 'http://dbpedia.org/resource/Dorian_Gregory', '1971-01-26', 'http://dbpedia.org/resource/Drew_Fuller', '1980-05-19', 'http://dbpedia.org/resource/Greg_Vaughan', '1973-06-15', 'http://dbpedia.org/resource/Holly_Marie_Combs', '1973-12-03', 'http://dbpedia.org/resource/Julian_McMahon', '1968-07-27', 'http://dbpedia.org/resource/Kaley_Cuoco', '1985-11-30', 'http://dbpedia.org/resource/Rose_McGowan', '1973-09-05', 'http://dbpedia.org/resource/Shannen_Doherty', '1971-04-12', 'http://dbpedia.org/resource/Ted_King_(actor)', '1965-10-01']</t>
         </is>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Give me the capitals of all countries that the Himalayas run through.</t>
+          <t>Who designed the Brooklyn Bridge?</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/New_Delhi']</t>
+          <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/New_Delhi']</t>
+          <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
         </is>
       </c>
       <c r="D28" t="b">
@@ -998,17 +998,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>In which country is the Limerick Lake?</t>
+          <t>Who wrote the Game of Thrones theme?</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Canada']</t>
+          <t>['http://dbpedia.org/resource/Ramin_Djawadi']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Canada']</t>
+          <t>['http://dbpedia.org/resource/Ramin_Djawadi']</t>
         </is>
       </c>
       <c r="D29" t="b">
@@ -1018,37 +1018,37 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>how much is the population Iraq?</t>
+          <t>Give me all movies directed by Francis Ford Coppola.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['40462701']</t>
+          <t>['http://dbpedia.org/resource/Apocalypse_Now_Redux', 'http://dbpedia.org/resource/Battle_Beyond_the_Sun', "http://dbpedia.org/resource/Bram_Stoker's_Dracula_(1992_film)", 'http://dbpedia.org/resource/Captain_EO', 'http://dbpedia.org/resource/Dementia_13', 'http://dbpedia.org/resource/Distant_Vision', "http://dbpedia.org/resource/Finian's_Rainbow_(1968_film)", 'http://dbpedia.org/resource/Gardens_of_Stone', 'http://dbpedia.org/resource/Jack_(1996_film)', 'http://dbpedia.org/resource/Megalopolis_(film)', 'http://dbpedia.org/resource/New_York_Stories', 'http://dbpedia.org/resource/One_from_the_Heart', 'http://dbpedia.org/resource/Peggy_Sue_Got_Married', 'http://dbpedia.org/resource/Rumble_Fish', 'http://dbpedia.org/resource/Supernova_(2000_film)', 'http://dbpedia.org/resource/Tetro', 'http://dbpedia.org/resource/The_Bellboy_and_the_Playgirls', 'http://dbpedia.org/resource/The_Conversation', 'http://dbpedia.org/resource/The_Cotton_Club_(film)', 'http://dbpedia.org/resource/The_Godfather_(film_series)', 'http://dbpedia.org/resource/The_Godfather_Part_II', 'http://dbpedia.org/resource/The_Godfather_Part_III', 'http://dbpedia.org/resource/The_Godfather_Saga__The_Godfather_Trilogy:_1901–1980__1', 'http://dbpedia.org/resource/The_Godfather', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/The_Rain_People', 'http://dbpedia.org/resource/The_Rainmaker_(1997_film)', 'http://dbpedia.org/resource/The_Terror_(1963_film)', 'http://dbpedia.org/resource/Tonight_for_Sure', 'http://dbpedia.org/resource/Tucker:_The_Man_and_His_Dream', 'http://dbpedia.org/resource/Twixt_(film)', "http://dbpedia.org/resource/You're_a_Big_Boy_Now", 'http://dbpedia.org/resource/Youth_Without_Youth_(film)']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['40462701']</t>
+          <t>['http://dbpedia.org/resource/Apocalypse_Now_Redux', 'http://dbpedia.org/resource/Battle_Beyond_the_Sun', "http://dbpedia.org/resource/Bram_Stoker's_Dracula_(1992_film)", 'http://dbpedia.org/resource/Captain_EO', 'http://dbpedia.org/resource/Dementia_13', 'http://dbpedia.org/resource/Distant_Vision', "http://dbpedia.org/resource/Finian's_Rainbow_(1968_film)", 'http://dbpedia.org/resource/Gardens_of_Stone', 'http://dbpedia.org/resource/Jack_(1996_film)', 'http://dbpedia.org/resource/Megalopolis_(film)', 'http://dbpedia.org/resource/New_York_Stories', 'http://dbpedia.org/resource/One_from_the_Heart', 'http://dbpedia.org/resource/Peggy_Sue_Got_Married', 'http://dbpedia.org/resource/Rumble_Fish', 'http://dbpedia.org/resource/Supernova_(2000_film)', 'http://dbpedia.org/resource/Tetro', 'http://dbpedia.org/resource/The_Bellboy_and_the_Playgirls', 'http://dbpedia.org/resource/The_Conversation', 'http://dbpedia.org/resource/The_Cotton_Club_(film)', 'http://dbpedia.org/resource/The_Godfather_(film_series)', 'http://dbpedia.org/resource/The_Godfather_Part_II', 'http://dbpedia.org/resource/The_Godfather_Part_III', 'http://dbpedia.org/resource/The_Godfather_Saga__The_Godfather_Trilogy:_1901–1980__1', 'http://dbpedia.org/resource/The_Godfather_Saga', 'http://dbpedia.org/resource/The_Godfather', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/The_Rain_People', 'http://dbpedia.org/resource/The_Rainmaker_(1997_film)', 'http://dbpedia.org/resource/The_Terror_(1963_film)', 'http://dbpedia.org/resource/Tonight_for_Sure', 'http://dbpedia.org/resource/Tucker:_The_Man_and_His_Dream', 'http://dbpedia.org/resource/Twixt_(film)', "http://dbpedia.org/resource/You're_a_Big_Boy_Now", 'http://dbpedia.org/resource/Youth_Without_Youth_(film)']</t>
         </is>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Give me the birthdays of all actors of the television show Charmed.</t>
+          <t>What is the birth name of Adele?</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['1965-10-01', '1968-07-27', '1969-02-01', '1971-01-26', '1971-04-12', '1972-12-19', '1973-06-15', '1973-09-05', '1973-12-03', '1980-05-19', '1985-11-30']</t>
+          <t>['Adele Laurie Blue Adkins']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['1965-10-01', '1968-07-27', '1969-02-01', '1971-01-26', '1971-04-12', '1972-12-19', '1973-06-15', '1973-09-05', '1973-12-03', '1980-05-19', '1985-11-30']</t>
+          <t>['Adele Laurie Blue Adkins']</t>
         </is>
       </c>
       <c r="D31" t="b">
@@ -1058,17 +1058,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Who designed the Brooklyn Bridge?</t>
+          <t>What is the currency of the Czech Republic?</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
+          <t>['http://dbpedia.org/resource/Czech_koruna']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
+          <t>['http://dbpedia.org/resource/Czech_koruna']</t>
         </is>
       </c>
       <c r="D32" t="b">
@@ -1078,17 +1078,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Who wrote the Game of Thrones theme?</t>
+          <t>Who discovered Ceres?</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ramin_Djawadi']</t>
+          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ramin_Djawadi']</t>
+          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
         </is>
       </c>
       <c r="D33" t="b">
@@ -1098,17 +1098,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>What is the currency of the Czech Republic?</t>
+          <t>Give me a list of all bandleaders that play trumpet.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Czech_koruna']</t>
+          <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Czech_koruna']</t>
+          <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
         </is>
       </c>
       <c r="D34" t="b">
@@ -1118,17 +1118,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Who discovered Ceres?</t>
+          <t>What is the capital of Canada?</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
+          <t>['http://dbpedia.org/resource/Ottawa']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
+          <t>['http://dbpedia.org/resource/Ottawa']</t>
         </is>
       </c>
       <c r="D35" t="b">
@@ -1138,17 +1138,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>In which films did Julia Roberts as well as Richard Gere play?</t>
+          <t>What is the capital of Cameroon?</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
+          <t>['http://dbpedia.org/resource/Yaoundé']</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
+          <t>['http://dbpedia.org/resource/Yaoundé']</t>
         </is>
       </c>
       <c r="D36" t="b">
@@ -1158,17 +1158,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>What is the capital of Canada?</t>
+          <t>Who created Family Guy?</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ottawa']</t>
+          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ottawa']</t>
+          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
         </is>
       </c>
       <c r="D37" t="b">
@@ -1178,17 +1178,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>What is the capital of Cameroon?</t>
+          <t>How much is the population of mexico city ?</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Yaoundé']</t>
+          <t>['9209944']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Yaoundé']</t>
+          <t>['9209944']</t>
         </is>
       </c>
       <c r="D38" t="b">
@@ -1198,17 +1198,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>How many programming languages are there?</t>
+          <t>How many people live in the capital of Australia?</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['1325']</t>
+          <t>['453558']</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['1325']</t>
+          <t>['453558']</t>
         </is>
       </c>
       <c r="D39" t="b">
@@ -1218,17 +1218,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>How much is the population of mexico city ?</t>
+          <t>how big is the total area of North Rhine- Westphalia?</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['9209944']</t>
+          <t>['34084130000']</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['9209944']</t>
+          <t>['34084130000']</t>
         </is>
       </c>
       <c r="D40" t="b">
@@ -1238,17 +1238,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>how big is the total area of North Rhine- Westphalia?</t>
+          <t>How many employees does IBM have?</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['34084130000']</t>
+          <t>['282100']</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['34084130000']</t>
+          <t>['282100']</t>
         </is>
       </c>
       <c r="D41" t="b">
@@ -1258,17 +1258,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>How many employees does IBM have?</t>
+          <t>Who created Goofy?</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['282100']</t>
+          <t>['http://dbpedia.org/resource/Bob_Ogle', 'http://dbpedia.org/resource/Paul_Murry']</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['282100']</t>
+          <t>['http://dbpedia.org/resource/Bob_Ogle', 'http://dbpedia.org/resource/Paul_Murry']</t>
         </is>
       </c>
       <c r="D42" t="b">
